--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -395,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>DNIS</t>
   </si>
@@ -54,6 +58,15 @@
   </si>
   <si>
     <t>Deleted</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -102,6 +115,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -149,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +200,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +421,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -425,6 +441,21 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -448,7 +479,7 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +533,7 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>

--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M18"/>
 </workbook>
 </file>
 
@@ -411,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -522,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -3,22 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>DNIS</t>
   </si>
@@ -63,6 +67,17 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT [DNIS] as 'DNIS'
+      ,[HotlineNumber] as 'Hot Line Name'
+      ,[EnrollmentFlag] as 'Enrollment Flag'
+      ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,[LAST_CHANGED_ON] as 'Last Changed On'
+  FROM [VB_Enrolment_Eligibility]</t>
   </si>
 </sst>
 </file>
@@ -98,9 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -564,12 +582,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="8250" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -179,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +581,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
+++ b/ocms/src/test/resources/TestData/VBEnrollmentFlagData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49BC739-D6B4-47D9-9709-947BE879C2ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -73,13 +78,13 @@
       ,[EnrollmentFlag] as 'Enrollment Flag'
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,[LAST_CHANGED_ON] as 'Last Changed On'
-  FROM [VB_Enrolment_Eligibility]</t>
+  FROM [VB_Enrolment_Eligibility] Order By [HotlineNumber] Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,9 +213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,20 +457,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -453,17 +492,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -474,22 +513,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -529,21 +568,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,24 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
